--- a/dictionaries/core/3_0/3_0_core.xlsx
+++ b/dictionaries/core/3_0/3_0_core.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="1250">
   <si>
     <t>table</t>
   </si>
@@ -3206,7 +3206,7 @@
     <t>bisc</t>
   </si>
   <si>
-    <t xml:space="preserve">environage </t>
+    <t>environage</t>
   </si>
   <si>
     <t>helix</t>
@@ -3653,58 +3653,58 @@
     <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yes, living as a couple</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No, not living as a couple</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-employed </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unemployed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Student, apprentice, student</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Domestic tasks (housewife etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inactive/other (Receiving benefits or pension etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legislators, senior officials, managers </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Professionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technicians and associate professionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clerks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Service workers, and shop and market sales workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skilled agricultural, and fishery workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Craft and related trades workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plant and machine operators, and assemblers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elementary occupations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Armed forces occupations</t>
+    <t>Yes, living as a couple</t>
+  </si>
+  <si>
+    <t>No, not living as a couple</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Self-employed</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Student, apprentice, student</t>
+  </si>
+  <si>
+    <t>Domestic tasks (housewife etc.)</t>
+  </si>
+  <si>
+    <t>Inactive/other (Receiving benefits or pension etc.)</t>
+  </si>
+  <si>
+    <t>Legislators, senior officials, managers</t>
+  </si>
+  <si>
+    <t>Professionals</t>
+  </si>
+  <si>
+    <t>Technicians and associate professionals</t>
+  </si>
+  <si>
+    <t>Clerks</t>
+  </si>
+  <si>
+    <t>Service workers, and shop and market sales workers</t>
+  </si>
+  <si>
+    <t>Skilled agricultural, and fishery workers</t>
+  </si>
+  <si>
+    <t>Craft and related trades workers</t>
+  </si>
+  <si>
+    <t>Plant and machine operators, and assemblers</t>
+  </si>
+  <si>
+    <t>Elementary occupations</t>
+  </si>
+  <si>
+    <t>Armed forces occupations</t>
   </si>
   <si>
     <t>high</t>
@@ -3716,46 +3716,31 @@
     <t>low</t>
   </si>
   <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-employed </t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>Student, apprentice, student</t>
-  </si>
-  <si>
-    <t>Domestic tasks (housewife etc.)</t>
-  </si>
-  <si>
     <t>Inactive/other (receiving benefits or pension etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> no childcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> childcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not cared for by friends, relatives etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cared for by friends, relatives etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not cared for by a professional child minder</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cared for by a professional child minder</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not attending a day care centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> attending a day care centre</t>
+    <t>no childcare</t>
+  </si>
+  <si>
+    <t>childcare</t>
+  </si>
+  <si>
+    <t>not cared for by friends, relatives etc.</t>
+  </si>
+  <si>
+    <t>cared for by friends, relatives etc.</t>
+  </si>
+  <si>
+    <t>not cared for by a professional child minder</t>
+  </si>
+  <si>
+    <t>cared for by a professional child minder</t>
+  </si>
+  <si>
+    <t>not attending a day care centre</t>
+  </si>
+  <si>
+    <t>attending a day care centre</t>
   </si>
   <si>
     <t>not exposed</t>
@@ -3764,22 +3749,16 @@
     <t>exposed</t>
   </si>
   <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4th quartile (highest)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3rd quartile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2nd quartile </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1st quartile </t>
+    <t>4th quartile (highest)</t>
+  </si>
+  <si>
+    <t>3rd quartile</t>
+  </si>
+  <si>
+    <t>2nd quartile</t>
+  </si>
+  <si>
+    <t>1st quartile</t>
   </si>
   <si>
     <t>No split up</t>
@@ -24793,7 +24772,7 @@
         <v>0</v>
       </c>
       <c r="E387" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -24810,7 +24789,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -24827,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="E389" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -24844,7 +24823,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -24861,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="E391" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -24878,7 +24857,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -24963,7 +24942,7 @@
         <v>0</v>
       </c>
       <c r="E397" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -24980,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -24997,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="E399" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -25014,7 +24993,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -25031,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="E401" t="s">
-        <v>1237</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -25048,7 +25027,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -25847,7 +25826,7 @@
         <v>0</v>
       </c>
       <c r="E449" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -25864,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -25881,7 +25860,7 @@
         <v>0</v>
       </c>
       <c r="E451" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -25898,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -25915,7 +25894,7 @@
         <v>0</v>
       </c>
       <c r="E453" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -25932,7 +25911,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -25949,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="E455" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -25966,7 +25945,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -25983,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="E457" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -26000,7 +25979,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -26017,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="E459" t="s">
-        <v>1249</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -26034,7 +26013,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="s">
-        <v>1250</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -26119,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="E465" t="s">
-        <v>1249</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -26136,7 +26115,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="s">
-        <v>1250</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -26153,7 +26132,7 @@
         <v>0</v>
       </c>
       <c r="E467" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -26170,7 +26149,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -26187,7 +26166,7 @@
         <v>0</v>
       </c>
       <c r="E469" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -26204,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -26221,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -26238,7 +26217,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="473" spans="1:5">
